--- a/saved_margins/iscx.xlsx
+++ b/saved_margins/iscx.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/128f4c0d96ea7ffd/One Drive Backup/4. SH/Paper 1/Results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SH\CODE\dynaampg\saved_margins\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="93" documentId="13_ncr:1_{57503B8B-D944-44BE-A5EC-5100985F3D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45A43B25-7450-4724-95C9-393B08713935}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7226AB9F-E454-45ED-B5E9-7303D63D4CBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="60" windowWidth="21600" windowHeight="11235" xr2:uid="{5C9C02E7-3852-43A3-AC08-318A9C4E9C7B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5C9C02E7-3852-43A3-AC08-318A9C4E9C7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,12 +42,6 @@
     <t>chat</t>
   </si>
   <si>
-    <t>streaming</t>
-  </si>
-  <si>
-    <t>file_transfer</t>
-  </si>
-  <si>
     <t>voip</t>
   </si>
   <si>
@@ -60,12 +54,6 @@
     <t>vpn_chat</t>
   </si>
   <si>
-    <t>vpn_streaming</t>
-  </si>
-  <si>
-    <t>vpn_file_transfer</t>
-  </si>
-  <si>
     <t>vpn_p2p</t>
   </si>
   <si>
@@ -76,6 +64,18 @@
   </si>
   <si>
     <t>class_name</t>
+  </si>
+  <si>
+    <t>stream</t>
+  </si>
+  <si>
+    <t>ft</t>
+  </si>
+  <si>
+    <t>vpn_stream</t>
+  </si>
+  <si>
+    <t>vpn_ft</t>
   </si>
 </sst>
 </file>
@@ -430,7 +430,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,10 +441,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -465,7 +465,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>580</v>
@@ -473,7 +473,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>1000</v>
@@ -481,7 +481,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6">
         <v>1200</v>
@@ -489,7 +489,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7">
         <v>600</v>
@@ -497,7 +497,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8">
         <v>200</v>
@@ -505,7 +505,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B9">
         <v>640</v>
@@ -513,7 +513,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>400</v>
@@ -521,7 +521,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>450</v>
@@ -529,7 +529,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B12">
         <v>620</v>
@@ -537,7 +537,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B13">
         <v>300</v>
